--- a/out.xlsx
+++ b/out.xlsx
@@ -470,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3334.040738217016</v>
+        <v>3.334040738217015</v>
       </c>
       <c r="C2" t="n">
         <v>7.33302739842057</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0007837936621606765</v>
+        <v>0.7837936621606765</v>
       </c>
       <c r="E2" t="n">
         <v>10.26637217381037</v>
@@ -493,13 +493,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11723.17797397337</v>
+        <v>11.72317797397337</v>
       </c>
       <c r="C3" t="n">
         <v>12.9351469887279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002229088397191927</v>
+        <v>0.2229088397191927</v>
       </c>
       <c r="E3" t="n">
         <v>29.22987553557185</v>
@@ -516,13 +516,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8640.049952405707</v>
+        <v>8.640049952405706</v>
       </c>
       <c r="C4" t="n">
         <v>11.27068066044551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003024519550691243</v>
+        <v>0.3024519550691243</v>
       </c>
       <c r="E4" t="n">
         <v>22.67484372390808</v>
@@ -539,13 +539,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6795.233582520457</v>
+        <v>6.795233582520457</v>
       </c>
       <c r="C5" t="n">
         <v>10.11266615105015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003845636751504757</v>
+        <v>0.3845636751504756</v>
       </c>
       <c r="E5" t="n">
         <v>18.56702455800444</v>
@@ -562,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4385.60339437317</v>
+        <v>4.38560339437317</v>
       </c>
       <c r="C6" t="n">
         <v>8.298968647065847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005958587142997918</v>
+        <v>0.5958587142997918</v>
       </c>
       <c r="E6" t="n">
         <v>12.89704483217537</v>
